--- a/static/all_students.xlsx
+++ b/static/all_students.xlsx
@@ -509,14 +509,12 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Gardenn</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Sayaad</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -527,19 +525,19 @@
           <t>M</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v>1</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sayaad</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Jornalism</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Jon</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -550,19 +548,19 @@
           <t>M</t>
         </is>
       </c>
-      <c r="E8" t="n">
-        <v>2</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Jon</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Web Development</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Raj</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -573,19 +571,19 @@
           <t>M</t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>3</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Raj</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Data Engineer</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Thati</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -596,19 +594,19 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E10" t="n">
-        <v>4</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Thati</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Data Engineer</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Vicky</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -619,123 +617,125 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vicky</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Video Production</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>27</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Rick</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>36</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>23</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Andre</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cinema</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>29</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Barb</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Rick</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Video Production</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Music</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Andre</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Music</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Barb</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Television</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Cinema</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Elisa</t>
         </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Television</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
